--- a/downloaded_files/CMPS202_Tutorial-35687.xlsx
+++ b/downloaded_files/CMPS202_Tutorial-35687.xlsx
@@ -42,6 +42,15 @@
     <x:t>Ahmed Hany Mohamed Helmy Ahmed</x:t>
   </x:si>
   <x:si>
+    <x:t>1220219</x:t>
+  </x:si>
+  <x:si>
+    <x:t>أندرو وليد جرجس كيرلس</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Andrew Walid Girgis</x:t>
+  </x:si>
+  <x:si>
     <x:t>1220159</x:t>
   </x:si>
   <x:si>
@@ -192,15 +201,6 @@
     <x:t>abdallah ibraheem</x:t>
   </x:si>
   <x:si>
-    <x:t>1220014</x:t>
-  </x:si>
-  <x:si>
-    <x:t>علاءالدين اسامه احمد علي احمد</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Alaa Eldin Usama Ahmed Ali</x:t>
-  </x:si>
-  <x:si>
     <x:t>1230069</x:t>
   </x:si>
   <x:si>
@@ -273,6 +273,15 @@
     <x:t>Mahmoud medhat mahmoud mohamed</x:t>
   </x:si>
   <x:si>
+    <x:t>1230257</x:t>
+  </x:si>
+  <x:si>
+    <x:t>مريم رامى محمد سعيد زكى رضوان</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MARIM</x:t>
+  </x:si>
+  <x:si>
     <x:t>1220204</x:t>
   </x:si>
   <x:si>
@@ -334,15 +343,6 @@
   </x:si>
   <x:si>
     <x:t>Youssef Bassem Lamey Gindy</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4230187</x:t>
-  </x:si>
-  <x:si>
-    <x:t>يوسف فرج حسن محمد</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Youssef Farag</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -881,7 +881,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="E3" s="3">
-        <x:v>45907.4176304745</x:v>
+        <x:v>45927.415403206</x:v>
       </x:c>
       <x:c r="F3" s="2" t="s"/>
       <x:c r="G3" s="2" t="s"/>
@@ -913,7 +913,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E4" s="3">
-        <x:v>45907.4194545486</x:v>
+        <x:v>45907.4176304745</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s"/>
       <x:c r="G4" s="2" t="s"/>
@@ -945,7 +945,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45909.8793661227</x:v>
+        <x:v>45907.4194545486</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -977,7 +977,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45906.6646034375</x:v>
+        <x:v>45927.4188121181</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -1009,7 +1009,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45907.4210927431</x:v>
+        <x:v>45906.6646034375</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -1041,7 +1041,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45912.6609923611</x:v>
+        <x:v>45907.4210927431</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -1073,7 +1073,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45912.304284838</x:v>
+        <x:v>45912.6609923611</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1105,7 +1105,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45907.4191084491</x:v>
+        <x:v>45912.304284838</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1137,7 +1137,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45906.6650102199</x:v>
+        <x:v>45907.4191084491</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1169,7 +1169,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45906.6711699421</x:v>
+        <x:v>45906.6650102199</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1201,7 +1201,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45907.4144706018</x:v>
+        <x:v>45906.6711699421</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1233,7 +1233,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45912.6619541319</x:v>
+        <x:v>45907.4144706018</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1265,7 +1265,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45907.4177506134</x:v>
+        <x:v>45912.6619541319</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1293,9 +1293,11 @@
       <x:c r="C16" s="2" t="s">
         <x:v>48</x:v>
       </x:c>
-      <x:c r="D16" s="2" t="s"/>
+      <x:c r="D16" s="2" t="s">
+        <x:v>49</x:v>
+      </x:c>
       <x:c r="E16" s="3">
-        <x:v>45912.6610591782</x:v>
+        <x:v>45907.4177506134</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1318,16 +1320,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B17" s="2" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="C17" s="2" t="s">
-        <x:v>50</x:v>
-      </x:c>
-      <x:c r="D17" s="2" t="s">
         <x:v>51</x:v>
       </x:c>
+      <x:c r="D17" s="2" t="s"/>
       <x:c r="E17" s="3">
-        <x:v>45912.6609517014</x:v>
+        <x:v>45912.6610591782</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1359,7 +1359,7 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45906.6660037384</x:v>
+        <x:v>45912.6609517014</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1391,7 +1391,7 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45912.6611576389</x:v>
+        <x:v>45906.6660037384</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1423,7 +1423,7 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45907.4206363079</x:v>
+        <x:v>45912.6611576389</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1711,7 +1711,7 @@
         <x:v>87</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45913.8053837963</x:v>
+        <x:v>45927.4823793171</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1743,7 +1743,7 @@
         <x:v>90</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45907.4209824884</x:v>
+        <x:v>45913.8053837963</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1775,7 +1775,7 @@
         <x:v>93</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45907.4190850347</x:v>
+        <x:v>45907.4209824884</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1807,7 +1807,7 @@
         <x:v>96</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45907.4417715625</x:v>
+        <x:v>45907.4190850347</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1839,7 +1839,7 @@
         <x:v>99</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45907.4144861458</x:v>
+        <x:v>45907.4417715625</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1871,7 +1871,7 @@
         <x:v>102</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45907.4200031597</x:v>
+        <x:v>45907.4144861458</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1903,7 +1903,7 @@
         <x:v>105</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45906.6647606134</x:v>
+        <x:v>45907.4200031597</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -1935,7 +1935,7 @@
         <x:v>108</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45907.4154672106</x:v>
+        <x:v>45906.6647606134</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>

--- a/downloaded_files/CMPS202_Tutorial-35687.xlsx
+++ b/downloaded_files/CMPS202_Tutorial-35687.xlsx
@@ -219,6 +219,24 @@
     <x:t>Omar Tamer Hassan Ali ElMowafy</x:t>
   </x:si>
   <x:si>
+    <x:t>1230075</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عمر عصام على شادي</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Omar Essam Ali shady</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1240118</x:t>
+  </x:si>
+  <x:si>
+    <x:t>فراس شريف مصطفى ابراهيم حلابه</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Feras Sherif Moustafa Ibrahim</x:t>
+  </x:si>
+  <x:si>
     <x:t>1220018</x:t>
   </x:si>
   <x:si>
@@ -237,15 +255,6 @@
     <x:t>Malek Sameh Esmael Abdelhameed</x:t>
   </x:si>
   <x:si>
-    <x:t>1220077</x:t>
-  </x:si>
-  <x:si>
-    <x:t>محمد امام محمد رضوان ياسين</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Muhammed emam muhammed radwan</x:t>
-  </x:si>
-  <x:si>
     <x:t>4230172</x:t>
   </x:si>
   <x:si>
@@ -262,15 +271,6 @@
   </x:si>
   <x:si>
     <x:t>Mohamed Magdy Fouad Abdul Elaty</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1220023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>محمود مدحت محمود محمد متولي</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mahmoud medhat mahmoud mohamed</x:t>
   </x:si>
   <x:si>
     <x:t>1230257</x:t>
@@ -977,7 +977,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45927.4188121181</x:v>
+        <x:v>45927.9039830208</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -1519,7 +1519,7 @@
         <x:v>69</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45909.9118907755</x:v>
+        <x:v>45927.6888765856</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1551,7 +1551,7 @@
         <x:v>72</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45907.4152066319</x:v>
+        <x:v>45927.6837010764</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1583,7 +1583,7 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45906.6660722222</x:v>
+        <x:v>45909.9118907755</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1615,7 +1615,7 @@
         <x:v>78</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45906.7421650463</x:v>
+        <x:v>45907.4152066319</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1647,7 +1647,7 @@
         <x:v>81</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45907.4629325232</x:v>
+        <x:v>45906.7421650463</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1679,7 +1679,7 @@
         <x:v>84</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45906.6647710648</x:v>
+        <x:v>45907.4629325232</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>

--- a/downloaded_files/CMPS202_Tutorial-35687.xlsx
+++ b/downloaded_files/CMPS202_Tutorial-35687.xlsx
@@ -977,7 +977,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45927.9039830208</x:v>
+        <x:v>45928.6537029745</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>

--- a/downloaded_files/CMPS202_Tutorial-35687.xlsx
+++ b/downloaded_files/CMPS202_Tutorial-35687.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="103">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -67,24 +67,6 @@
   </x:si>
   <x:si>
     <x:t>IBRAHIM MAHMOUD IBRAHIM MOHAMED ABOELNOUR</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1220029</x:t>
-  </x:si>
-  <x:si>
-    <x:t>احمد اسامه شحاته احمد مرعوه</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ahmed Osama Shehata Ahmed</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1220163</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ادهم مدحت عبدالمعز العزب هيبه</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Adham Medhat Abdelmoaz Heba</x:t>
   </x:si>
   <x:si>
     <x:t>1220038</x:t>
@@ -458,7 +440,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E36" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E34" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -758,7 +740,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T36"/>
+  <x:dimension ref="A1:T34"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -977,7 +959,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45928.6537029745</x:v>
+        <x:v>45907.4210927431</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -1009,7 +991,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45906.6646034375</x:v>
+        <x:v>45912.6609923611</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -1041,7 +1023,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45907.4210927431</x:v>
+        <x:v>45912.304284838</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -1073,7 +1055,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45912.6609923611</x:v>
+        <x:v>45907.4191084491</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1105,7 +1087,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45912.304284838</x:v>
+        <x:v>45906.6650102199</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1137,7 +1119,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45907.4191084491</x:v>
+        <x:v>45906.6711699421</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1169,7 +1151,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45906.6650102199</x:v>
+        <x:v>45907.4144706018</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1201,7 +1183,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45906.6711699421</x:v>
+        <x:v>45912.6619541319</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1233,7 +1215,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45907.4144706018</x:v>
+        <x:v>45907.4177506134</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1261,11 +1243,9 @@
       <x:c r="C15" s="2" t="s">
         <x:v>45</x:v>
       </x:c>
-      <x:c r="D15" s="2" t="s">
-        <x:v>46</x:v>
-      </x:c>
+      <x:c r="D15" s="2" t="s"/>
       <x:c r="E15" s="3">
-        <x:v>45912.6619541319</x:v>
+        <x:v>45912.6610591782</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1288,16 +1268,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B16" s="2" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="C16" s="2" t="s">
         <x:v>47</x:v>
       </x:c>
-      <x:c r="C16" s="2" t="s">
+      <x:c r="D16" s="2" t="s">
         <x:v>48</x:v>
       </x:c>
-      <x:c r="D16" s="2" t="s">
-        <x:v>49</x:v>
-      </x:c>
       <x:c r="E16" s="3">
-        <x:v>45907.4177506134</x:v>
+        <x:v>45912.6609517014</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1320,14 +1300,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B17" s="2" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="C17" s="2" t="s">
         <x:v>50</x:v>
       </x:c>
-      <x:c r="C17" s="2" t="s">
+      <x:c r="D17" s="2" t="s">
         <x:v>51</x:v>
       </x:c>
-      <x:c r="D17" s="2" t="s"/>
       <x:c r="E17" s="3">
-        <x:v>45912.6610591782</x:v>
+        <x:v>45906.6660037384</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1359,7 +1341,7 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45912.6609517014</x:v>
+        <x:v>45912.6611576389</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1391,7 +1373,7 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45906.6660037384</x:v>
+        <x:v>45912.6610942477</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1423,7 +1405,7 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45912.6611576389</x:v>
+        <x:v>45906.6647952546</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1455,7 +1437,7 @@
         <x:v>63</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45912.6610942477</x:v>
+        <x:v>45927.6888765856</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1487,7 +1469,7 @@
         <x:v>66</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45906.6647952546</x:v>
+        <x:v>45927.6837010764</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1519,7 +1501,7 @@
         <x:v>69</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45927.6888765856</x:v>
+        <x:v>45909.9118907755</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1551,7 +1533,7 @@
         <x:v>72</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45927.6837010764</x:v>
+        <x:v>45907.4152066319</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1583,7 +1565,7 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45909.9118907755</x:v>
+        <x:v>45906.7421650463</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1615,7 +1597,7 @@
         <x:v>78</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45907.4152066319</x:v>
+        <x:v>45907.4629325232</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1647,7 +1629,7 @@
         <x:v>81</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45906.7421650463</x:v>
+        <x:v>45927.4823793171</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1679,7 +1661,7 @@
         <x:v>84</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45907.4629325232</x:v>
+        <x:v>45913.8053837963</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1711,7 +1693,7 @@
         <x:v>87</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45927.4823793171</x:v>
+        <x:v>45907.4209824884</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1743,7 +1725,7 @@
         <x:v>90</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45913.8053837963</x:v>
+        <x:v>45907.4190850347</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1775,7 +1757,7 @@
         <x:v>93</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45907.4209824884</x:v>
+        <x:v>45907.4417715625</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1807,7 +1789,7 @@
         <x:v>96</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45907.4190850347</x:v>
+        <x:v>45907.4144861458</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1839,7 +1821,7 @@
         <x:v>99</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45907.4417715625</x:v>
+        <x:v>45907.4200031597</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1871,7 +1853,7 @@
         <x:v>102</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45907.4144861458</x:v>
+        <x:v>45906.6647606134</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1889,70 +1871,6 @@
       <x:c r="S34" s="2" t="s"/>
       <x:c r="T34" s="2" t="s"/>
     </x:row>
-    <x:row r="35" spans="1:20">
-      <x:c r="A35" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B35" s="2" t="s">
-        <x:v>103</x:v>
-      </x:c>
-      <x:c r="C35" s="2" t="s">
-        <x:v>104</x:v>
-      </x:c>
-      <x:c r="D35" s="2" t="s">
-        <x:v>105</x:v>
-      </x:c>
-      <x:c r="E35" s="3">
-        <x:v>45907.4200031597</x:v>
-      </x:c>
-      <x:c r="F35" s="2" t="s"/>
-      <x:c r="G35" s="2" t="s"/>
-      <x:c r="H35" s="2" t="s"/>
-      <x:c r="I35" s="2" t="s"/>
-      <x:c r="J35" s="2" t="s"/>
-      <x:c r="K35" s="2" t="s"/>
-      <x:c r="L35" s="2" t="s"/>
-      <x:c r="M35" s="2" t="s"/>
-      <x:c r="N35" s="2" t="s"/>
-      <x:c r="O35" s="2" t="s"/>
-      <x:c r="P35" s="2" t="s"/>
-      <x:c r="Q35" s="2" t="s"/>
-      <x:c r="R35" s="2" t="s"/>
-      <x:c r="S35" s="2" t="s"/>
-      <x:c r="T35" s="2" t="s"/>
-    </x:row>
-    <x:row r="36" spans="1:20">
-      <x:c r="A36" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B36" s="2" t="s">
-        <x:v>106</x:v>
-      </x:c>
-      <x:c r="C36" s="2" t="s">
-        <x:v>107</x:v>
-      </x:c>
-      <x:c r="D36" s="2" t="s">
-        <x:v>108</x:v>
-      </x:c>
-      <x:c r="E36" s="3">
-        <x:v>45906.6647606134</x:v>
-      </x:c>
-      <x:c r="F36" s="2" t="s"/>
-      <x:c r="G36" s="2" t="s"/>
-      <x:c r="H36" s="2" t="s"/>
-      <x:c r="I36" s="2" t="s"/>
-      <x:c r="J36" s="2" t="s"/>
-      <x:c r="K36" s="2" t="s"/>
-      <x:c r="L36" s="2" t="s"/>
-      <x:c r="M36" s="2" t="s"/>
-      <x:c r="N36" s="2" t="s"/>
-      <x:c r="O36" s="2" t="s"/>
-      <x:c r="P36" s="2" t="s"/>
-      <x:c r="Q36" s="2" t="s"/>
-      <x:c r="R36" s="2" t="s"/>
-      <x:c r="S36" s="2" t="s"/>
-      <x:c r="T36" s="2" t="s"/>
-    </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.18" right="0.18" top="0.6" bottom="0.6" header="0.3" footer="0.3"/>
@@ -1965,9 +1883,6 @@
     <x:firstHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Tutorial Introduction to Database Management Systems (CMPS202) Location : [3706]3706-45-الجيزة الرئيسي Time : Monday(13:16)</x:firstHeader>
     <x:firstFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:firstFooter>
   </x:headerFooter>
-  <x:rowBreaks count="1" manualBreakCount="1">
-    <x:brk id="35" max="1048576" man="1"/>
-  </x:rowBreaks>
   <x:tableParts count="1">
     <x:tablePart r:id="rId5"/>
   </x:tableParts>

--- a/downloaded_files/CMPS202_Tutorial-35687.xlsx
+++ b/downloaded_files/CMPS202_Tutorial-35687.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="103">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -60,15 +60,6 @@
     <x:t>Ibrahim Aly Ibrahim Hassan Elsayed</x:t>
   </x:si>
   <x:si>
-    <x:t>4230136</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ابراهيم محمود ابراهيم محمد ابوالنور</x:t>
-  </x:si>
-  <x:si>
-    <x:t>IBRAHIM MAHMOUD IBRAHIM MOHAMED ABOELNOUR</x:t>
-  </x:si>
-  <x:si>
     <x:t>1220038</x:t>
   </x:si>
   <x:si>
@@ -210,6 +201,15 @@
     <x:t>Omar Essam Ali shady</x:t>
   </x:si>
   <x:si>
+    <x:t>1220328</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عمرو عماد صبحى حسن محمد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AMR EMAD SOBHY HASSAN MOHAMED</x:t>
+  </x:si>
+  <x:si>
     <x:t>1240118</x:t>
   </x:si>
   <x:si>
@@ -316,6 +316,15 @@
   </x:si>
   <x:si>
     <x:t>Nourhan Essam Mohamed Ahmed Wahba</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1230326</x:t>
+  </x:si>
+  <x:si>
+    <x:t>يسي رزق لمعي رزق</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Yassa rizk lamey rizk</x:t>
   </x:si>
   <x:si>
     <x:t>1220212</x:t>
@@ -440,7 +449,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E34" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E35" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -740,7 +749,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T34"/>
+  <x:dimension ref="A1:T35"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -749,7 +758,7 @@
     <x:col min="1" max="1" width="9.190625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="30.420625" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="49.810625" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="42.050625000000004" style="0" customWidth="1"/>
     <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
     <x:col min="15" max="20" width="3.960625" style="0" customWidth="1"/>
@@ -927,7 +936,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45907.4194545486</x:v>
+        <x:v>45907.4210927431</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -959,7 +968,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45907.4210927431</x:v>
+        <x:v>45912.6609923611</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -991,7 +1000,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45912.6609923611</x:v>
+        <x:v>45912.304284838</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -1023,7 +1032,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45912.304284838</x:v>
+        <x:v>45907.4191084491</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -1055,7 +1064,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45907.4191084491</x:v>
+        <x:v>45906.6650102199</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1087,7 +1096,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45906.6650102199</x:v>
+        <x:v>45906.6711699421</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1119,7 +1128,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45906.6711699421</x:v>
+        <x:v>45907.4144706018</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1151,7 +1160,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45907.4144706018</x:v>
+        <x:v>45912.6619541319</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1183,7 +1192,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45912.6619541319</x:v>
+        <x:v>45907.4177506134</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1211,11 +1220,9 @@
       <x:c r="C14" s="2" t="s">
         <x:v>42</x:v>
       </x:c>
-      <x:c r="D14" s="2" t="s">
-        <x:v>43</x:v>
-      </x:c>
+      <x:c r="D14" s="2" t="s"/>
       <x:c r="E14" s="3">
-        <x:v>45907.4177506134</x:v>
+        <x:v>45912.6610591782</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1238,14 +1245,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B15" s="2" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="C15" s="2" t="s">
         <x:v>44</x:v>
       </x:c>
-      <x:c r="C15" s="2" t="s">
+      <x:c r="D15" s="2" t="s">
         <x:v>45</x:v>
       </x:c>
-      <x:c r="D15" s="2" t="s"/>
       <x:c r="E15" s="3">
-        <x:v>45912.6610591782</x:v>
+        <x:v>45912.6609517014</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1277,7 +1286,7 @@
         <x:v>48</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45912.6609517014</x:v>
+        <x:v>45906.6660037384</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1309,7 +1318,7 @@
         <x:v>51</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45906.6660037384</x:v>
+        <x:v>45912.6611576389</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1341,7 +1350,7 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45912.6611576389</x:v>
+        <x:v>45912.6610942477</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1373,7 +1382,7 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45912.6610942477</x:v>
+        <x:v>45906.6647952546</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1405,7 +1414,7 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45906.6647952546</x:v>
+        <x:v>45927.6888765856</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1437,7 +1446,7 @@
         <x:v>63</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45927.6888765856</x:v>
+        <x:v>45929.4132430208</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1853,7 +1862,7 @@
         <x:v>102</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45906.6647606134</x:v>
+        <x:v>45929.3119977199</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1871,6 +1880,38 @@
       <x:c r="S34" s="2" t="s"/>
       <x:c r="T34" s="2" t="s"/>
     </x:row>
+    <x:row r="35" spans="1:20">
+      <x:c r="A35" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B35" s="2" t="s">
+        <x:v>103</x:v>
+      </x:c>
+      <x:c r="C35" s="2" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="D35" s="2" t="s">
+        <x:v>105</x:v>
+      </x:c>
+      <x:c r="E35" s="3">
+        <x:v>45906.6647606134</x:v>
+      </x:c>
+      <x:c r="F35" s="2" t="s"/>
+      <x:c r="G35" s="2" t="s"/>
+      <x:c r="H35" s="2" t="s"/>
+      <x:c r="I35" s="2" t="s"/>
+      <x:c r="J35" s="2" t="s"/>
+      <x:c r="K35" s="2" t="s"/>
+      <x:c r="L35" s="2" t="s"/>
+      <x:c r="M35" s="2" t="s"/>
+      <x:c r="N35" s="2" t="s"/>
+      <x:c r="O35" s="2" t="s"/>
+      <x:c r="P35" s="2" t="s"/>
+      <x:c r="Q35" s="2" t="s"/>
+      <x:c r="R35" s="2" t="s"/>
+      <x:c r="S35" s="2" t="s"/>
+      <x:c r="T35" s="2" t="s"/>
+    </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.18" right="0.18" top="0.6" bottom="0.6" header="0.3" footer="0.3"/>
@@ -1883,6 +1924,9 @@
     <x:firstHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Tutorial Introduction to Database Management Systems (CMPS202) Location : [3706]3706-45-الجيزة الرئيسي Time : Monday(13:16)</x:firstHeader>
     <x:firstFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:firstFooter>
   </x:headerFooter>
+  <x:rowBreaks count="1" manualBreakCount="1">
+    <x:brk id="35" max="1048576" man="1"/>
+  </x:rowBreaks>
   <x:tableParts count="1">
     <x:tablePart r:id="rId5"/>
   </x:tableParts>

--- a/downloaded_files/CMPS202_Tutorial-35687.xlsx
+++ b/downloaded_files/CMPS202_Tutorial-35687.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -112,6 +112,15 @@
   </x:si>
   <x:si>
     <x:t>Jana Ayman Wafaey</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1230176</x:t>
+  </x:si>
+  <x:si>
+    <x:t>حازم ايهاب فاروق فاوي مصطفى</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hazem ehab farouk fawy</x:t>
   </x:si>
   <x:si>
     <x:t>1230028</x:t>
@@ -449,7 +458,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E35" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E36" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -749,7 +758,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T35"/>
+  <x:dimension ref="A1:T36"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1128,7 +1137,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45907.4144706018</x:v>
+        <x:v>45931.6444196412</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1160,7 +1169,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45912.6619541319</x:v>
+        <x:v>45907.4144706018</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1192,7 +1201,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45907.4177506134</x:v>
+        <x:v>45912.6619541319</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1220,9 +1229,11 @@
       <x:c r="C14" s="2" t="s">
         <x:v>42</x:v>
       </x:c>
-      <x:c r="D14" s="2" t="s"/>
+      <x:c r="D14" s="2" t="s">
+        <x:v>43</x:v>
+      </x:c>
       <x:c r="E14" s="3">
-        <x:v>45912.6610591782</x:v>
+        <x:v>45907.4177506134</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1245,16 +1256,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B15" s="2" t="s">
-        <x:v>43</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="C15" s="2" t="s">
-        <x:v>44</x:v>
-      </x:c>
-      <x:c r="D15" s="2" t="s">
         <x:v>45</x:v>
       </x:c>
+      <x:c r="D15" s="2" t="s"/>
       <x:c r="E15" s="3">
-        <x:v>45912.6609517014</x:v>
+        <x:v>45912.6610591782</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1286,7 +1295,7 @@
         <x:v>48</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45906.6660037384</x:v>
+        <x:v>45912.6609517014</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1318,7 +1327,7 @@
         <x:v>51</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45912.6611576389</x:v>
+        <x:v>45906.6660037384</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1350,7 +1359,7 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45912.6610942477</x:v>
+        <x:v>45912.6611576389</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1382,7 +1391,7 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45906.6647952546</x:v>
+        <x:v>45912.6610942477</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1414,7 +1423,7 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45927.6888765856</x:v>
+        <x:v>45906.6647952546</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1446,7 +1455,7 @@
         <x:v>63</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45929.4132430208</x:v>
+        <x:v>45927.6888765856</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1478,7 +1487,7 @@
         <x:v>66</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45927.6837010764</x:v>
+        <x:v>45929.4132430208</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1510,7 +1519,7 @@
         <x:v>69</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45909.9118907755</x:v>
+        <x:v>45927.6837010764</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1542,7 +1551,7 @@
         <x:v>72</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45907.4152066319</x:v>
+        <x:v>45909.9118907755</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1574,7 +1583,7 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45906.7421650463</x:v>
+        <x:v>45907.4152066319</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1606,7 +1615,7 @@
         <x:v>78</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45907.4629325232</x:v>
+        <x:v>45906.7421650463</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1638,7 +1647,7 @@
         <x:v>81</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45927.4823793171</x:v>
+        <x:v>45907.4629325232</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1670,7 +1679,7 @@
         <x:v>84</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45913.8053837963</x:v>
+        <x:v>45927.4823793171</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1702,7 +1711,7 @@
         <x:v>87</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45907.4209824884</x:v>
+        <x:v>45913.8053837963</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1734,7 +1743,7 @@
         <x:v>90</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45907.4190850347</x:v>
+        <x:v>45907.4209824884</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1766,7 +1775,7 @@
         <x:v>93</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45907.4417715625</x:v>
+        <x:v>45907.4190850347</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1798,7 +1807,7 @@
         <x:v>96</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45907.4144861458</x:v>
+        <x:v>45907.4417715625</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1830,7 +1839,7 @@
         <x:v>99</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45907.4200031597</x:v>
+        <x:v>45907.4144861458</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1862,7 +1871,7 @@
         <x:v>102</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45929.3119977199</x:v>
+        <x:v>45907.4200031597</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1894,7 +1903,7 @@
         <x:v>105</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45906.6647606134</x:v>
+        <x:v>45929.3119977199</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -1911,6 +1920,38 @@
       <x:c r="R35" s="2" t="s"/>
       <x:c r="S35" s="2" t="s"/>
       <x:c r="T35" s="2" t="s"/>
+    </x:row>
+    <x:row r="36" spans="1:20">
+      <x:c r="A36" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B36" s="2" t="s">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="C36" s="2" t="s">
+        <x:v>107</x:v>
+      </x:c>
+      <x:c r="D36" s="2" t="s">
+        <x:v>108</x:v>
+      </x:c>
+      <x:c r="E36" s="3">
+        <x:v>45906.6647606134</x:v>
+      </x:c>
+      <x:c r="F36" s="2" t="s"/>
+      <x:c r="G36" s="2" t="s"/>
+      <x:c r="H36" s="2" t="s"/>
+      <x:c r="I36" s="2" t="s"/>
+      <x:c r="J36" s="2" t="s"/>
+      <x:c r="K36" s="2" t="s"/>
+      <x:c r="L36" s="2" t="s"/>
+      <x:c r="M36" s="2" t="s"/>
+      <x:c r="N36" s="2" t="s"/>
+      <x:c r="O36" s="2" t="s"/>
+      <x:c r="P36" s="2" t="s"/>
+      <x:c r="Q36" s="2" t="s"/>
+      <x:c r="R36" s="2" t="s"/>
+      <x:c r="S36" s="2" t="s"/>
+      <x:c r="T36" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CMPS202_Tutorial-35687.xlsx
+++ b/downloaded_files/CMPS202_Tutorial-35687.xlsx
@@ -270,7 +270,7 @@
     <x:t>مريم رامى محمد سعيد زكى رضوان</x:t>
   </x:si>
   <x:si>
-    <x:t>MARIM</x:t>
+    <x:t>Mariam Ramy Mohamed Said Zaki Radwan</x:t>
   </x:si>
   <x:si>
     <x:t>1220204</x:t>

--- a/downloaded_files/CMPS202_Tutorial-35687.xlsx
+++ b/downloaded_files/CMPS202_Tutorial-35687.xlsx
@@ -93,7 +93,7 @@
     <x:t>بيشوي ماهر فؤاد بدرس بدروس</x:t>
   </x:si>
   <x:si>
-    <x:t>Beshoy Maher Fouad Badras</x:t>
+    <x:t>Beshoy Maher Fouad Badras Badros</x:t>
   </x:si>
   <x:si>
     <x:t>1210210</x:t>
@@ -126,10 +126,10 @@
     <x:t>1230028</x:t>
   </x:si>
   <x:si>
-    <x:t>حبيبه حسين محمد احمد احمد بدر</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Habiba Hussein</x:t>
+    <x:t xml:space="preserve">حبيبه حسين محمد احمد </x:t>
+  </x:si>
+  <x:si>
+    <x:t>HABIBA HUSSEIN MOHAMED AHMED</x:t>
   </x:si>
   <x:si>
     <x:t>1220234</x:t>
